--- a/BlankProcess/student_record.xlsx
+++ b/BlankProcess/student_record.xlsx
@@ -127,7 +127,7 @@
     <t xml:space="preserve">assignment link </t>
   </si>
   <si>
-    <t>2022a6r035@gmail.com</t>
+    <t>2022a6r035@mietjammu.in</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
